--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1589369.783342503</v>
+        <v>1586688.316368815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12450563.82877701</v>
+        <v>12453496.45767769</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673445</v>
+        <v>529228.9347558491</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10408826.45769794</v>
+        <v>10437187.66435676</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>50.20964914699422</v>
+        <v>21.45987517072724</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>60.82794815185814</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>37.41955400821256</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>30.8718481982565</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>87.91534644508695</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>355.1709026007618</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>306.9050829712638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.8693623087468</v>
+        <v>27.73027065886992</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5501586861725</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1743120999484</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>95.80173553707394</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0770147268831</v>
+        <v>54.51339729048271</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3061554456076</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8294358364283</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>173.5207438958864</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>41.6864314640513</v>
       </c>
       <c r="D7" t="n">
-        <v>127.5953747380143</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5644294006316</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5438465187576</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5502271046</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>271.6458386227924</v>
+        <v>111.0639119493543</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5.115799983896099</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>270.5300956530383</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>168.0085901035813</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>64.18874521414871</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632822</v>
+        <v>286.0415509765153</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>90.12733575632201</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292354</v>
+        <v>200.2564445245048</v>
       </c>
       <c r="U11" t="n">
-        <v>250.949422691779</v>
+        <v>250.9282565850106</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6934939670195</v>
+        <v>134.5519331479904</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749274</v>
+        <v>85.27461966844839</v>
       </c>
       <c r="I12" t="n">
-        <v>8.28254627148992</v>
+        <v>3.408632107548868</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254633</v>
+        <v>119.830722400076</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487706</v>
+        <v>188.9126861071576</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7670384496465</v>
+        <v>225.7577252378682</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>134.8480411425334</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6506090954829</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>72.06183391645594</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>217.9458255773847</v>
       </c>
       <c r="U13" t="n">
-        <v>84.40897360549737</v>
+        <v>286.1913727966922</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672623</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081943</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001827</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561451</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.804129031782891</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440891</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>50.13260773245206</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.4423155261894</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081944</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>335.9464125187713</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561451</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.1983720868929</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108341</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T19" t="n">
-        <v>51.50796385237902</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4423155261895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081966</v>
+        <v>34.32106446353743</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561451</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>43.84520587351293</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>64.44601915223754</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440892</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108341</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>62.18842302760083</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756239</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>110.0177171766857</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.5005260950192</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.7122866515516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673005</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>139.1630968205443</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>233.1549565045584</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207808</v>
+        <v>549.2024635036626</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207808</v>
+        <v>549.2024635036626</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207808</v>
+        <v>359.7826784871777</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207808</v>
+        <v>359.7826784871777</v>
       </c>
       <c r="F2" t="n">
-        <v>381.8773534715774</v>
+        <v>352.8371777379742</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4328,52 +4328,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372657</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372657</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372657</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207808</v>
+        <v>549.2024635036626</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207808</v>
+        <v>549.2024635036626</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207808</v>
+        <v>549.2024635036626</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207808</v>
+        <v>549.2024635036626</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.2164318224399</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="C3" t="n">
-        <v>382.2164318224399</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="D3" t="n">
-        <v>382.2164318224399</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>222.9789768169844</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>76.44441884386939</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>76.44441884386939</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843284</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389248</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389248</v>
+        <v>685.1217629831033</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389248</v>
+        <v>495.7019779666185</v>
       </c>
       <c r="V3" t="n">
-        <v>382.2164318224399</v>
+        <v>306.2821929501336</v>
       </c>
       <c r="W3" t="n">
-        <v>382.2164318224399</v>
+        <v>306.2821929501336</v>
       </c>
       <c r="X3" t="n">
-        <v>382.2164318224399</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.2164318224399</v>
+        <v>116.8624079336487</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.3383230128123</v>
+        <v>367.885927951658</v>
       </c>
       <c r="C4" t="n">
-        <v>334.3383230128123</v>
+        <v>367.885927951658</v>
       </c>
       <c r="D4" t="n">
-        <v>334.3383230128123</v>
+        <v>217.7692885393223</v>
       </c>
       <c r="E4" t="n">
-        <v>334.3383230128123</v>
+        <v>69.85619495692916</v>
       </c>
       <c r="F4" t="n">
-        <v>334.3383230128123</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
         <v>38.67250990818521</v>
@@ -4489,49 +4489,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>465.2530182692153</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777544</v>
+        <v>650.9033495638721</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143046</v>
+        <v>750.10234866528</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768599</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S4" t="n">
-        <v>523.7581080292973</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="T4" t="n">
-        <v>334.3383230128123</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="U4" t="n">
-        <v>334.3383230128123</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="V4" t="n">
-        <v>334.3383230128123</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="W4" t="n">
-        <v>334.3383230128123</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="X4" t="n">
-        <v>334.3383230128123</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="Y4" t="n">
-        <v>334.3383230128123</v>
+        <v>367.885927951658</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0153828345949</v>
+        <v>450.059460422794</v>
       </c>
       <c r="C5" t="n">
-        <v>802.0153828345949</v>
+        <v>81.0969434823823</v>
       </c>
       <c r="D5" t="n">
-        <v>802.0153828345949</v>
+        <v>81.0969434823823</v>
       </c>
       <c r="E5" t="n">
-        <v>802.0153828345949</v>
+        <v>81.0969434823823</v>
       </c>
       <c r="F5" t="n">
-        <v>795.0698820853914</v>
+        <v>74.15144273317883</v>
       </c>
       <c r="G5" t="n">
-        <v>436.3113946098745</v>
+        <v>61.73958546545745</v>
       </c>
       <c r="H5" t="n">
-        <v>126.3062602954665</v>
+        <v>61.73958546545745</v>
       </c>
       <c r="I5" t="n">
-        <v>37.54932867046973</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>125.5342965407784</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>308.139473874315</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>571.5791052688209</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>896.3758920220525</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.042038728371</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1533.722529801065</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1757.552325312</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1877.466433523487</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1877.466433523487</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1739.536980305131</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1528.249796365789</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1528.249796365789</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="V5" t="n">
-        <v>1528.249796365789</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="W5" t="n">
-        <v>1175.481141095675</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="X5" t="n">
-        <v>802.0153828345949</v>
+        <v>840.1987923986057</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.0153828345949</v>
+        <v>450.059460422794</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440.0907714844685</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="C6" t="n">
-        <v>440.0907714844685</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="D6" t="n">
-        <v>440.0907714844685</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="E6" t="n">
-        <v>280.853316479013</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="F6" t="n">
-        <v>134.318758505898</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="G6" t="n">
-        <v>134.318758505898</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="H6" t="n">
-        <v>37.54932867046973</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
-        <v>37.54932867046973</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>185.9916966408895</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
-        <v>321.5493144971337</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>550.1458017090923</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>836.2639882579848</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1144.363516749338</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1403.994597991572</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1593.038363925637</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
-        <v>1877.466433523487</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1877.466433523487</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1735.974499455928</v>
+        <v>1631.396515460773</v>
       </c>
       <c r="T6" t="n">
-        <v>1540.715756581577</v>
+        <v>1435.777792927613</v>
       </c>
       <c r="U6" t="n">
-        <v>1312.605215332659</v>
+        <v>1207.661376058584</v>
       </c>
       <c r="V6" t="n">
-        <v>1077.453107100916</v>
+        <v>972.5092678268418</v>
       </c>
       <c r="W6" t="n">
-        <v>823.2157503727149</v>
+        <v>718.2719110986402</v>
       </c>
       <c r="X6" t="n">
-        <v>615.364250167182</v>
+        <v>510.4204108931073</v>
       </c>
       <c r="Y6" t="n">
-        <v>440.0907714844685</v>
+        <v>302.6601121281534</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>894.2249735507768</v>
+        <v>75.83671759190329</v>
       </c>
       <c r="C7" t="n">
-        <v>894.2249735507768</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="D7" t="n">
-        <v>765.3407566436916</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>617.4276630612985</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
-        <v>470.5377155633881</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>302.2908171789118</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2364267559242</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
-        <v>37.54932867046973</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>44.97225155316366</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0072307948254</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>424.2895378952943</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>684.8595843928479</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>944.6684740092333</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.62773934281</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1336.742898765453</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1369.702040900194</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1369.702040900194</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1369.702040900194</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1369.702040900194</v>
+        <v>1068.720505876298</v>
       </c>
       <c r="U7" t="n">
-        <v>1369.702040900194</v>
+        <v>1068.720505876298</v>
       </c>
       <c r="V7" t="n">
-        <v>1115.017552694307</v>
+        <v>814.0360176704113</v>
       </c>
       <c r="W7" t="n">
-        <v>1115.017552694307</v>
+        <v>524.6188476334507</v>
       </c>
       <c r="X7" t="n">
-        <v>1115.017552694307</v>
+        <v>296.6292967354334</v>
       </c>
       <c r="Y7" t="n">
-        <v>894.2249735507768</v>
+        <v>75.83671759190329</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>736.6224273402293</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="C8" t="n">
-        <v>736.6224273402293</v>
+        <v>1384.846061372529</v>
       </c>
       <c r="D8" t="n">
-        <v>736.6224273402293</v>
+        <v>1026.580362765779</v>
       </c>
       <c r="E8" t="n">
-        <v>736.6224273402293</v>
+        <v>640.7921101675347</v>
       </c>
       <c r="F8" t="n">
-        <v>325.6365225506217</v>
+        <v>229.8062053779271</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4835,19 +4835,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y8" t="n">
-        <v>736.6224273402293</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,10 +4884,10 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
         <v>1218.104987164206</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.4439942939401</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>354.4439942939401</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>204.3273548816044</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>56.41426129921129</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4960,7 +4960,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1363.183397192641</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1108.498908986754</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354876</v>
+        <v>819.0817389497932</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374703</v>
+        <v>591.0921880517759</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939401</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2122.062817212194</v>
+        <v>1964.680280661055</v>
       </c>
       <c r="C11" t="n">
-        <v>1753.100300271782</v>
+        <v>1595.717763720643</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.394653702509</v>
+        <v>1237.452065113893</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.606401104264</v>
+        <v>851.6638125156487</v>
       </c>
       <c r="F11" t="n">
-        <v>786.620496314657</v>
+        <v>440.6779077260412</v>
       </c>
       <c r="G11" t="n">
-        <v>372.125688421307</v>
+        <v>375.8407913481132</v>
       </c>
       <c r="H11" t="n">
-        <v>80.45786684223403</v>
+        <v>86.90993177587544</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223403</v>
+        <v>86.90993177587544</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746712</v>
+        <v>346.0711268306483</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947039</v>
+        <v>785.2250958543808</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653015</v>
+        <v>1366.936188936539</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458667</v>
+        <v>2045.871301162652</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328189</v>
+        <v>2740.406101688224</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990711</v>
+        <v>3382.900357888845</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608859</v>
+        <v>3896.753340067153</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718601</v>
+        <v>4234.462783153866</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111701</v>
+        <v>4345.496588793771</v>
       </c>
       <c r="S11" t="n">
-        <v>4022.893342111701</v>
+        <v>4254.458875908597</v>
       </c>
       <c r="T11" t="n">
-        <v>3819.444223496312</v>
+        <v>4052.179639015158</v>
       </c>
       <c r="U11" t="n">
-        <v>3565.959958151081</v>
+        <v>3798.716753575754</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.89707080751</v>
+        <v>3467.653866232183</v>
       </c>
       <c r="W11" t="n">
-        <v>2882.128415537396</v>
+        <v>3114.885210962068</v>
       </c>
       <c r="X11" t="n">
-        <v>2508.662657276316</v>
+        <v>2741.419452700989</v>
       </c>
       <c r="Y11" t="n">
-        <v>2508.662657276316</v>
+        <v>2351.280120725177</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5545302742961</v>
+        <v>941.5594694786299</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1015009931691</v>
+        <v>767.1064401975029</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1670913319178</v>
+        <v>618.1720305362517</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9296363264624</v>
+        <v>458.9345755307962</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3950783533473</v>
+        <v>312.4000175576812</v>
       </c>
       <c r="G12" t="n">
-        <v>176.3410440432266</v>
+        <v>176.4889739738525</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727435</v>
+        <v>90.35299451077329</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223403</v>
+        <v>86.90993177587544</v>
       </c>
       <c r="J12" t="n">
-        <v>202.754003163556</v>
+        <v>222.4467171615794</v>
       </c>
       <c r="K12" t="n">
-        <v>489.9324039036195</v>
+        <v>532.2554960922264</v>
       </c>
       <c r="L12" t="n">
-        <v>922.401744869645</v>
+        <v>995.1541732976204</v>
       </c>
       <c r="M12" t="n">
-        <v>1446.429935688257</v>
+        <v>1554.691964248508</v>
       </c>
       <c r="N12" t="n">
-        <v>1998.736238339037</v>
+        <v>2143.447700484952</v>
       </c>
       <c r="O12" t="n">
-        <v>2361.604567899688</v>
+        <v>2143.447700484952</v>
       </c>
       <c r="P12" t="n">
-        <v>2361.604567899688</v>
+        <v>2538.55244506631</v>
       </c>
       <c r="Q12" t="n">
-        <v>2557.913016602452</v>
+        <v>2538.55244506631</v>
       </c>
       <c r="R12" t="n">
-        <v>2557.913016602452</v>
+        <v>2554.676205525191</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.215892839358</v>
+        <v>2433.635071787741</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.818644810297</v>
+        <v>2242.814176730006</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.771131224795</v>
+        <v>2014.776070429129</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.619022993052</v>
+        <v>1779.623962197386</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.381666264851</v>
+        <v>1525.386605469185</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.530166059318</v>
+        <v>1317.535105263652</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.769867294364</v>
+        <v>1109.774806498698</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.377547334873</v>
+        <v>559.3801048431928</v>
       </c>
       <c r="C13" t="n">
-        <v>525.377547334873</v>
+        <v>390.443921915286</v>
       </c>
       <c r="D13" t="n">
-        <v>375.2609079225374</v>
+        <v>390.443921915286</v>
       </c>
       <c r="E13" t="n">
-        <v>227.3478143401444</v>
+        <v>390.443921915286</v>
       </c>
       <c r="F13" t="n">
-        <v>80.45786684223403</v>
+        <v>254.2337793470703</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223403</v>
+        <v>86.90993177587544</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223403</v>
+        <v>86.90993177587544</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223403</v>
+        <v>86.90993177587544</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283902</v>
+        <v>158.2938792768372</v>
       </c>
       <c r="K13" t="n">
-        <v>377.027092707682</v>
+        <v>405.4364700166939</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977127</v>
+        <v>777.2203325507685</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583784</v>
+        <v>1179.603410743422</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955085</v>
+        <v>1577.853335128909</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510216</v>
+        <v>1929.685303402543</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226117</v>
+        <v>2207.217650882463</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167697</v>
+        <v>2315.931582493719</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.001193167697</v>
+        <v>2243.141851264976</v>
       </c>
       <c r="S13" t="n">
-        <v>2005.830897168753</v>
+        <v>2243.141851264976</v>
       </c>
       <c r="T13" t="n">
-        <v>1785.17138995001</v>
+        <v>2022.994552701961</v>
       </c>
       <c r="U13" t="n">
-        <v>1699.909800449508</v>
+        <v>1733.912357957828</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.225312243621</v>
+        <v>1479.227869751941</v>
       </c>
       <c r="W13" t="n">
-        <v>1155.80814220666</v>
+        <v>1189.81069971498</v>
       </c>
       <c r="X13" t="n">
-        <v>927.8185913086429</v>
+        <v>961.8211488169627</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.0260121651128</v>
+        <v>741.0285696734326</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555054</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965433</v>
+        <v>1897.462430614642</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358683</v>
+        <v>1539.196732007892</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760439</v>
+        <v>1153.408479409648</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708309</v>
+        <v>742.4225746200402</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364467</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251945</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957692</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.7472028748</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.60923933394</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021288</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127297</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304036</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070885</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100994</v>
+        <v>4353.904749750203</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820543</v>
+        <v>4100.461420469753</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126182</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206858</v>
+        <v>3416.629877856068</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594988</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619176</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>942.6241165038824</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>768.1710872227554</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>619.2366775615042</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560486</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829336</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>177.6844143428631</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779271</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412852</v>
+        <v>570.9683475412867</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>1061.700680385039</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1653.719034637168</v>
       </c>
       <c r="N15" t="n">
-        <v>1902.630837358917</v>
+        <v>2275.814998036506</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5382,7 +5382,7 @@
         <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.163925027598</v>
       </c>
       <c r="T15" t="n">
         <v>2243.870218930011</v>
@@ -5391,7 +5391,7 @@
         <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1780.688609222639</v>
       </c>
       <c r="W15" t="n">
         <v>1526.451252494437</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635719</v>
+        <v>800.3555510393018</v>
       </c>
       <c r="C16" t="n">
-        <v>561.9183350635719</v>
+        <v>631.4193681113949</v>
       </c>
       <c r="D16" t="n">
-        <v>411.8016956512361</v>
+        <v>631.4193681113949</v>
       </c>
       <c r="E16" t="n">
-        <v>411.8016956512361</v>
+        <v>631.4193681113949</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264938</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156349</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086199</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693338</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213794</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005501</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020531</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856736</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410172</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410172</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2245.205584149102</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>2025.526801863484</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1974.887804153936</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1720.20331594805</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1430.786145911089</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373418</v>
+        <v>1202.796595013072</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938117</v>
+        <v>982.0040158695415</v>
       </c>
     </row>
     <row r="17">
@@ -5498,67 +5498,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708301</v>
       </c>
       <c r="G17" t="n">
         <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128772</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957692</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.7472028748</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.60923933394</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021288</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127297</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304036</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070885</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750203</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469753</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126182</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856068</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.164119594988</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>942.6241165038824</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.1710872227554</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>619.2366775615042</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560486</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829336</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>177.6844143428631</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779271</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412866</v>
       </c>
       <c r="L18" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385039</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637168</v>
       </c>
       <c r="N18" t="n">
-        <v>1355.754362358723</v>
+        <v>2005.899154770045</v>
       </c>
       <c r="O18" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
         <v>2552.77562977024</v>
@@ -5619,7 +5619,7 @@
         <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.163925027598</v>
       </c>
       <c r="T18" t="n">
         <v>2243.870218930011</v>
@@ -5628,7 +5628,7 @@
         <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1780.688609222639</v>
       </c>
       <c r="W18" t="n">
         <v>1526.451252494437</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>661.7095259921568</v>
+        <v>494.0589900220773</v>
       </c>
       <c r="C19" t="n">
-        <v>492.77334306425</v>
+        <v>494.0589900220773</v>
       </c>
       <c r="D19" t="n">
-        <v>342.6567036519141</v>
+        <v>343.9423506097415</v>
       </c>
       <c r="E19" t="n">
-        <v>342.6567036519141</v>
+        <v>343.9423506097415</v>
       </c>
       <c r="F19" t="n">
-        <v>342.6567036519141</v>
+        <v>197.0524031118312</v>
       </c>
       <c r="G19" t="n">
-        <v>175.4425088264937</v>
+        <v>197.0524031118312</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156349</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086199</v>
       </c>
       <c r="L19" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693336</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213793</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005501</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020531</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856736</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410171</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368673</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.346239107603</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.317992792065</v>
+        <v>1957.667456821985</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.241779106791</v>
+        <v>1668.591243136712</v>
       </c>
       <c r="V19" t="n">
-        <v>1581.557290900904</v>
+        <v>1413.906754930825</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.140120863944</v>
+        <v>1124.489584893865</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.150569965927</v>
+        <v>896.5000339958472</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.3579908223966</v>
+        <v>675.707454852317</v>
       </c>
     </row>
     <row r="20">
@@ -5735,67 +5735,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708301</v>
       </c>
       <c r="G20" t="n">
         <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608179</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128779</v>
+        <v>841.9378825128772</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957692</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.7472028748</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.60923933394</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021289</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127297</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304036</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4605.913419421675</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100994</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820543</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206858</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5805,58 +5805,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>942.6241165038824</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.1710872227554</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>619.2366775615042</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560486</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829336</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>177.6844143428631</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="J21" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779271</v>
       </c>
       <c r="K21" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412866</v>
       </c>
       <c r="L21" t="n">
-        <v>106.3138404733493</v>
+        <v>1061.700680385039</v>
       </c>
       <c r="M21" t="n">
-        <v>698.3321947254768</v>
+        <v>1653.719034637168</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.428158124813</v>
+        <v>2275.814998036505</v>
       </c>
       <c r="O21" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.163925027598</v>
       </c>
       <c r="T21" t="n">
         <v>2243.870218930011</v>
@@ -5865,7 +5865,7 @@
         <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1780.688609222639</v>
       </c>
       <c r="W21" t="n">
         <v>1526.451252494437</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>494.0589900220724</v>
+        <v>675.707454852317</v>
       </c>
       <c r="C22" t="n">
-        <v>325.1228070941654</v>
+        <v>675.707454852317</v>
       </c>
       <c r="D22" t="n">
-        <v>325.1228070941654</v>
+        <v>631.4193681113949</v>
       </c>
       <c r="E22" t="n">
-        <v>325.1228070941654</v>
+        <v>631.4193681113949</v>
       </c>
       <c r="F22" t="n">
-        <v>325.1228070941654</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G22" t="n">
-        <v>157.9086122687447</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264938</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608073</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156349</v>
       </c>
       <c r="K22" t="n">
-        <v>431.422473086198</v>
+        <v>431.422473086199</v>
       </c>
       <c r="L22" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693336</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213793</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005501</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020531</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856736</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410171</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368673</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.346239107598</v>
+        <v>2177.346239107603</v>
       </c>
       <c r="T22" t="n">
-        <v>1957.66745682198</v>
+        <v>1957.667456821985</v>
       </c>
       <c r="U22" t="n">
-        <v>1668.591243136707</v>
+        <v>1668.591243136712</v>
       </c>
       <c r="V22" t="n">
-        <v>1413.90675493082</v>
+        <v>1413.906754930825</v>
       </c>
       <c r="W22" t="n">
-        <v>1124.48958489386</v>
+        <v>1124.489584893865</v>
       </c>
       <c r="X22" t="n">
-        <v>896.5000339958422</v>
+        <v>896.5000339958472</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.707454852312</v>
+        <v>675.707454852317</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121639</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121639</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121639</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6251,10 +6251,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098238</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819169</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871881</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041576</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6835,34 +6835,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400708</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908939</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138406</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703105</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.4644740681595</v>
+        <v>1092.345997432833</v>
       </c>
       <c r="C46" t="n">
-        <v>465.5282911402526</v>
+        <v>923.4098145049256</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402526</v>
+        <v>773.2931750925899</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578596</v>
+        <v>625.3800815101968</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578596</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578596</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U46" t="n">
-        <v>1808.996727182794</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="V46" t="n">
-        <v>1554.312238976907</v>
+        <v>1722.776592304619</v>
       </c>
       <c r="W46" t="n">
-        <v>1264.895068939947</v>
+        <v>1722.776592304619</v>
       </c>
       <c r="X46" t="n">
-        <v>1036.905518041929</v>
+        <v>1494.787041406602</v>
       </c>
       <c r="Y46" t="n">
-        <v>816.1129388983992</v>
+        <v>1273.994462263072</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,10 +8149,10 @@
         <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>98.8606518859408</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777628</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.8142579204756</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>116.0171422436657</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>40.0321014439706</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515143</v>
+        <v>265.0304328515141</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>186.6744515171017</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>345.8965382656634</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344977</v>
+        <v>9.329992873615168</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111887</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>10.5730068803978</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692889308208</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>141.4191532602544</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247369</v>
+        <v>85.0691582915849</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628544</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.2303271812933</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>201.7888726367588</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613728192</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729141</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>135.6169189911484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108339</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>236.0528438159683</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.29152613729116</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>50.29152613728229</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>37.25561770506091</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440892</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9740306103828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.2915261372911</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613728201</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>104.7702671446994</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>76.00797063971638</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194215</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457059997</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24649,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016479</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>35.40333084624558</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.0841272570756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194262</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>6.25795120238692</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>53.0295178846857</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>924991.0236754814</v>
+        <v>924375.171606338</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>833397.5245386123</v>
+        <v>865966.130503668</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895756.5720670928</v>
+        <v>895756.5720670937</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895756.5720670928</v>
+        <v>895756.5720670936</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895756.5720670926</v>
+        <v>895756.5720670938</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242653</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900670.0829242656</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900670.0829242656</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797089</v>
+        <v>504138.4088226965</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647204</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647206</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647207</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26347,10 +26347,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>311981.9644455511</v>
+        <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>175633.9610741932</v>
+        <v>225670.6156307093</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979642</v>
+        <v>425362.2539062728</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.030004639</v>
+        <v>68721.6316393569</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744882</v>
+        <v>10818.91345744645</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>72536.85994794677</v>
+        <v>60247.15959153564</v>
       </c>
       <c r="L3" t="n">
-        <v>43333.79145930769</v>
+        <v>55419.25877810588</v>
       </c>
       <c r="M3" t="n">
-        <v>90993.97560824308</v>
+        <v>111092.4804797827</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282962</v>
+        <v>18068.54477280536</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>194173.7264522436</v>
+        <v>208242.9969710037</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13520.28235921769</v>
+        <v>13562.02524635365</v>
       </c>
       <c r="F4" t="n">
         <v>13600.27549061739</v>
@@ -26439,10 +26439,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26457,7 +26457,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>79410.78191608995</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166996</v>
+        <v>94344.49701971322</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138386</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138386</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138386</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392136.4009513879</v>
+        <v>-392136.4009513878</v>
       </c>
       <c r="C6" t="n">
-        <v>-51889.32240210056</v>
+        <v>-9301.03749624468</v>
       </c>
       <c r="D6" t="n">
-        <v>119950.1861998079</v>
+        <v>69913.53164329179</v>
       </c>
       <c r="E6" t="n">
-        <v>34959.8023708571</v>
+        <v>-29243.97789421662</v>
       </c>
       <c r="F6" t="n">
-        <v>264147.4175556252</v>
+        <v>339231.9109253419</v>
       </c>
       <c r="G6" t="n">
-        <v>407999.447560264</v>
+        <v>407953.5425646991</v>
       </c>
       <c r="H6" t="n">
-        <v>407999.4475602646</v>
+        <v>407953.5425646991</v>
       </c>
       <c r="I6" t="n">
-        <v>399097.0384053053</v>
+        <v>399062.3004798719</v>
       </c>
       <c r="J6" t="n">
-        <v>360851.0071342095</v>
+        <v>360816.2692087737</v>
       </c>
       <c r="K6" t="n">
-        <v>337379.0919148074</v>
+        <v>349634.0543457828</v>
       </c>
       <c r="L6" t="n">
-        <v>366582.1604034463</v>
+        <v>354461.9551592124</v>
       </c>
       <c r="M6" t="n">
-        <v>318921.976254511</v>
+        <v>298788.7334575357</v>
       </c>
       <c r="N6" t="n">
-        <v>372093.8457399244</v>
+        <v>391812.6691645128</v>
       </c>
       <c r="O6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="P6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373184</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>791.0867947950898</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053766</v>
+        <v>1297.841691286601</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716388</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716388</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716388</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>469.3666083808716</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527925</v>
+        <v>1086.374147198443</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326009</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326009</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326009</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>242.616853882185</v>
+        <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>142.9780973224496</v>
+        <v>184.0839356199294</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362271</v>
+        <v>363.7767991690615</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626191</v>
+        <v>60.19935742978691</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625286101</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>234.0895511156618</v>
+      </c>
+      <c r="D4" t="n">
+        <v>218.9696938180571</v>
+      </c>
+      <c r="E4" t="n">
+        <v>445.789315098404</v>
+      </c>
+      <c r="F4" t="n">
+        <v>73.77114312756602</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.56299777363938</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="C4" t="n">
-        <v>281.8410212145516</v>
-      </c>
-      <c r="D4" t="n">
-        <v>171.2182237191672</v>
-      </c>
-      <c r="E4" t="n">
-        <v>365.1385034278865</v>
-      </c>
-      <c r="F4" t="n">
-        <v>154.4219547980812</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.56299777364188</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663198</v>
-      </c>
       <c r="K4" t="n">
-        <v>281.8410212145518</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>171.218223719167</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278867</v>
+        <v>445.789315098404</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980812</v>
+        <v>73.77114312756602</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>281.8410212145516</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>171.2182237191672</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278865</v>
+        <v>445.789315098404</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980812</v>
+        <v>73.77114312756602</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>362.8881840830638</v>
+        <v>391.6379580593308</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,7 +27436,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038148</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>40.01380919888156</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>157.9900437837886</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377091</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>114.5491998246747</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>118.8649093504093</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378003</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577478</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>56.9515864930865</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>66.50987689998175</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0912330341336</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6419342461042</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.81143153875983</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>87.20591201366287</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.16195188141793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5603896345765</v>
       </c>
       <c r="D7" t="n">
-        <v>21.02009828019807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.150517818866</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>199.155722862838</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8503305175652</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2412175406094</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>139.9018641501616</v>
+        <v>300.4837908235996</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>140.3052480390351</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28065,7 +28065,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.69705846816231</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-3.266293902015605e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180248421286791</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>32.56971914450335</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6065272616591</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
-        <v>269.91960944619</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>404.5395251192599</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>501.8670527422157</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>558.4237956042746</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>567.4596764312557</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>535.8360811920852</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>457.3236982915674</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.4310517042342</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>199.7712798936565</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>72.46991090007282</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92153746418293</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544198737029432</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.70158291710642</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43370869942253</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>58.58520131265524</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7622702517078</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>274.768325697838</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>369.4599224182163</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>431.1423031633238</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>442.5533570240946</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>404.8498618608418</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>324.9277063376285</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2055667520405</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6474025199933</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>31.60615637695475</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.858573249214031</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
-        <v>0.111946244546475</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426549957827211</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68332598868194</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>42.90024782265832</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8570820183838</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7391678275614</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>212.0890728209656</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6181902074054</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3010494555042</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6363522208862</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>172.534733081211</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4541060140586</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>64.14287355830348</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>24.8608751741342</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>6.095258910716263</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07781181588148432</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718656</v>
+        <v>5.217454035323015</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248494</v>
+        <v>53.43325113925184</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569561</v>
+        <v>201.1458966967907</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513704</v>
+        <v>442.8248894304971</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227911</v>
+        <v>663.6797187457205</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561599</v>
+        <v>823.3533776792374</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663152</v>
+        <v>916.139275879913</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334822</v>
+        <v>930.9633671577747</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969609</v>
+        <v>879.0823085940314</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604691</v>
+        <v>750.2764120969942</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.855071803482</v>
+        <v>563.4263394569887</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677685</v>
+        <v>327.7408970463596</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051265</v>
+        <v>118.8927338299233</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489593</v>
+        <v>22.83940503962651</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574924</v>
+        <v>0.4173963228258411</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.65002319619112</v>
+        <v>2.791584015220236</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900372</v>
+        <v>26.96082456804807</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851008</v>
+        <v>96.11374789245113</v>
       </c>
       <c r="J12" t="n">
-        <v>250.3690774962848</v>
+        <v>263.7434704906102</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410899</v>
+        <v>450.779599510366</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273747</v>
+        <v>606.1288011994641</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893027</v>
+        <v>707.3237217511975</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760406</v>
+        <v>726.0444759585298</v>
       </c>
       <c r="O12" t="n">
-        <v>509.1299106673248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>533.0701090116607</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.2731364120455</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.9661306901068</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837451</v>
+        <v>51.85244870376181</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605105</v>
+        <v>11.25204258766402</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283633</v>
+        <v>0.1836568431065946</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221690427637939</v>
+        <v>2.340370262975838</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027188</v>
+        <v>20.80801924718519</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478459</v>
+        <v>70.38131663567339</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340023</v>
+        <v>165.4641775923917</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201169</v>
+        <v>271.9084723711927</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326442</v>
+        <v>347.9492298246078</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731250998</v>
+        <v>366.8636767681124</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857223</v>
+        <v>358.1404785152027</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537699</v>
+        <v>330.8006986249849</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299557</v>
+        <v>283.0571452602775</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361187</v>
+        <v>195.9740953842768</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088404</v>
+        <v>105.2315574607135</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801753</v>
+        <v>40.7862708556789</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725738</v>
+        <v>9.999763850896757</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347968</v>
+        <v>0.1276565597986822</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377435</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122292</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704063</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874072</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830441</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364277</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293325</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229624</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086967</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687536</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148616</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987169</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665723</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901947</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.92106942554091</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088195</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735822</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848232</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745735</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504313</v>
       </c>
       <c r="N15" t="n">
-        <v>382.7677754386397</v>
+        <v>759.721473092765</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169033</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862169</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013757</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291847</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548571</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284938</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273336</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900891</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640624</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265028</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416881</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465968</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282429</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561746</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851335</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551971</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377434</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122291</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704062</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874072</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083044</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364276</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293322</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229623</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086965</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687535</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148615</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987168</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665723</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901946</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540909</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088195</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735822</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848231</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745734</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504311</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670473</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426216</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862168</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013757</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284936</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.520731190089</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640624</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265027</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.752540541688</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465967</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282428</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851334</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377434</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122291</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704062</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874072</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830429</v>
+        <v>694.463976083044</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364276</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293306</v>
+        <v>958.6336695293322</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229623</v>
       </c>
       <c r="O20" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086965</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687535</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148615</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987168</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665723</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.4367569201901946</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540909</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088195</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735822</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848231</v>
       </c>
       <c r="L21" t="n">
-        <v>152.1929830599436</v>
+        <v>634.2436048745734</v>
       </c>
       <c r="M21" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504311</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927649</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426203</v>
+        <v>422.3544583169038</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862168</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013757</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284936</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900885</v>
+        <v>284.520731190089</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640624</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265027</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416873</v>
+        <v>374.752540541688</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465967</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282428</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851334</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>100.2010091933413</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068246</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.87370491950372</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>184.4496740742794</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>266.1006377722284</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>328.0775623770019</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>338.0466128346648</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>305.7378697703984</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>226.0907025362979</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.1253618297847</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>149.9417858287068</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
-        <v>136.926886723479</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9055426383421</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>289.0082692413055</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>311.2116449407613</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>262.2536174163974</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>190.9532989232982</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.3010804018681</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.497901901711032</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>143.4696760016785</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>239.6790980812817</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>263.202067169246</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4332218347328</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2214801349259</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8132923461044</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.29206276236417</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35267,7 +35267,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750467</v>
+        <v>514.7099619750464</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246841</v>
+        <v>261.7789849038109</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778106</v>
+        <v>443.5898677007399</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861727</v>
+        <v>587.5869627092502</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390425</v>
+        <v>685.7930426526403</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368913</v>
+        <v>701.5503035611837</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752742</v>
+        <v>648.9840971723446</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051996</v>
+        <v>519.0434163417247</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290325</v>
+        <v>341.1206495825392</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363642</v>
+        <v>112.1553592322275</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>123.5314508296181</v>
+        <v>136.9058438239435</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667309</v>
+        <v>312.938160536007</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475005</v>
+        <v>467.5744214195899</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672844</v>
+        <v>565.1896878291791</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927073</v>
+        <v>594.7027638751965</v>
       </c>
       <c r="O12" t="n">
-        <v>366.5336662228804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>399.0957015973305</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.291362326024</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.28662672614283</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732952</v>
+        <v>72.10499747571893</v>
       </c>
       <c r="K13" t="n">
-        <v>235.850541494234</v>
+        <v>249.6389805453099</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929603</v>
+        <v>375.5392550849239</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869404</v>
+        <v>406.447553729953</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649509</v>
+        <v>402.2726508944313</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678096</v>
+        <v>355.3858265390245</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948492</v>
+        <v>280.335704525171</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442433</v>
+        <v>109.8120521325824</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607209</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380636</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664404</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020597</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263714</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.75963278701</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134842</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404121</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845847</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069155</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104642</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946993</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284131</v>
       </c>
       <c r="N15" t="n">
-        <v>251.4260633553063</v>
+        <v>628.3797610094317</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>279.7582138724589</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066078</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642062</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243786</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883434</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209166</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606365</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931364</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044802</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607209</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380635</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664404</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020595</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263714</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870098</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134839</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440412</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845847</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104641</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32163785977577</v>
+        <v>495.6892250946992</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284129</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837141</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981771</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066075</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642062</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243785</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883433</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209166</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606364</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931363</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607209</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380635</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664404</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020595</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263696</v>
+        <v>744.7323009263714</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870098</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134826</v>
+        <v>553.8443926134839</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.254733440411</v>
+        <v>367.254733440412</v>
       </c>
       <c r="R20" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845847</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104641</v>
       </c>
       <c r="L21" t="n">
-        <v>13.63860328006944</v>
+        <v>495.6892250946992</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284129</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094316</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981759</v>
+        <v>279.7582138724594</v>
       </c>
       <c r="P21" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426736</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970737</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066075</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642062</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243779</v>
+        <v>391.6786041243785</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883433</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209166</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606364</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931363</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
